--- a/artfynd/A 5388-2021.xlsx
+++ b/artfynd/A 5388-2021.xlsx
@@ -1172,7 +1172,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106607590</v>
+        <v>106607596</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>405235.6640926296</v>
+        <v>405355.3536657504</v>
       </c>
       <c r="R6" t="n">
-        <v>7021145.529926532</v>
+        <v>7021553.610383645</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106607596</v>
+        <v>106607595</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1329,7 +1329,11 @@
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1337,10 +1341,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>405355.3536657504</v>
+        <v>405340.130843634</v>
       </c>
       <c r="R7" t="n">
-        <v>7021553.610383645</v>
+        <v>7021495.582215455</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1414,10 +1418,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106607595</v>
+        <v>106607577</v>
       </c>
       <c r="B8" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1430,42 +1434,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Edsåsdalen S, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>405340.130843634</v>
+        <v>405210.1198294814</v>
       </c>
       <c r="R8" t="n">
-        <v>7021495.582215455</v>
+        <v>7021485.921191392</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1508,11 +1504,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1539,10 +1530,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106607577</v>
+        <v>106607591</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1555,34 +1546,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Edsåsdalen S, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>405210.1198294814</v>
+        <v>405268.4341886034</v>
       </c>
       <c r="R9" t="n">
-        <v>7021485.921191392</v>
+        <v>7021309.663261802</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1625,6 +1624,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1651,7 +1655,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106607591</v>
+        <v>106607597</v>
       </c>
       <c r="B10" t="n">
         <v>56395</v>
@@ -1687,11 +1691,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>405268.4341886034</v>
+        <v>405209.6556569744</v>
       </c>
       <c r="R10" t="n">
-        <v>7021309.663261802</v>
+        <v>7021470.190883989</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106607597</v>
+        <v>106607590</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>405209.6556569744</v>
+        <v>405235.6640926296</v>
       </c>
       <c r="R11" t="n">
-        <v>7021470.190883989</v>
+        <v>7021145.529926532</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 5388-2021.xlsx
+++ b/artfynd/A 5388-2021.xlsx
@@ -1172,7 +1172,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106607596</v>
+        <v>106607590</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>405355.3536657504</v>
+        <v>405235.6640926296</v>
       </c>
       <c r="R6" t="n">
-        <v>7021553.610383645</v>
+        <v>7021145.529926532</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106607595</v>
+        <v>106607596</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1329,11 +1329,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1341,10 +1337,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>405340.130843634</v>
+        <v>405355.3536657504</v>
       </c>
       <c r="R7" t="n">
-        <v>7021495.582215455</v>
+        <v>7021553.610383645</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1418,10 +1414,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106607577</v>
+        <v>106607595</v>
       </c>
       <c r="B8" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1434,34 +1430,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Edsåsdalen S, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>405210.1198294814</v>
+        <v>405340.130843634</v>
       </c>
       <c r="R8" t="n">
-        <v>7021485.921191392</v>
+        <v>7021495.582215455</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1504,6 +1508,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1530,10 +1539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106607591</v>
+        <v>106607577</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1546,42 +1555,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Edsåsdalen S, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>405268.4341886034</v>
+        <v>405210.1198294814</v>
       </c>
       <c r="R9" t="n">
-        <v>7021309.663261802</v>
+        <v>7021485.921191392</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1624,11 +1625,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1655,7 +1651,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106607597</v>
+        <v>106607591</v>
       </c>
       <c r="B10" t="n">
         <v>56395</v>
@@ -1691,7 +1687,11 @@
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>405209.6556569744</v>
+        <v>405268.4341886034</v>
       </c>
       <c r="R10" t="n">
-        <v>7021470.190883989</v>
+        <v>7021309.663261802</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106607590</v>
+        <v>106607597</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>405235.6640926296</v>
+        <v>405209.6556569744</v>
       </c>
       <c r="R11" t="n">
-        <v>7021145.529926532</v>
+        <v>7021470.190883989</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
